--- a/classfiers/nano/elm/nano_elm_tanh_results.xlsx
+++ b/classfiers/nano/elm/nano_elm_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9399141630901288</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.8081865778200856</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6359447004608295</v>
+        <v>0.48873730964467</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7879980324643385</v>
+        <v>0.8024553571428572</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8826839826839827</v>
+        <v>0.7760180995475113</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9198113207547169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.35</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.980188679245283</v>
+        <v>0.846330802852542</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.943251442948054</v>
+        <v>0.9397333687660554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3421690590111643</v>
+        <v>0.3144065333643339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4997269158559481</v>
+        <v>0.4709165154264973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7621249837327916</v>
+        <v>0.7443456294015333</v>
       </c>
     </row>
   </sheetData>
